--- a/cbrunner/Parameters/Parameters_BurnSev.xlsx
+++ b/cbrunner/Parameters/Parameters_BurnSev.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E49C67-0F9C-428A-9641-4870E68C197C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F52F10A-878A-45F8-8E58-7EAA74DAF232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12645" yWindow="0" windowWidth="15735" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="42">
   <si>
     <t>BAFA</t>
   </si>
@@ -128,6 +128,39 @@
   </si>
   <si>
     <t>Po Sum</t>
+  </si>
+  <si>
+    <t>Cariboo</t>
+  </si>
+  <si>
+    <t>Lilles et al. and Kitchens et al. 2022</t>
+  </si>
+  <si>
+    <t>Forest Floor Low</t>
+  </si>
+  <si>
+    <t>Forest Floor Medium</t>
+  </si>
+  <si>
+    <t>Forest Floor High</t>
+  </si>
+  <si>
+    <t>Forest Floor Source</t>
+  </si>
+  <si>
+    <t>Mineral Soil Horizon Low</t>
+  </si>
+  <si>
+    <t>Mineral Soil Horizon Source</t>
+  </si>
+  <si>
+    <t>Mineral Soil Horizon Medium</t>
+  </si>
+  <si>
+    <t>Mineral Soil Horizon High</t>
+  </si>
+  <si>
+    <t>Philpott et al (2025), see Workbook</t>
   </si>
 </sst>
 </file>
@@ -137,7 +170,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,13 +186,45 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -171,22 +236,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -206,8 +266,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -512,891 +591,1180 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" customWidth="1"/>
-    <col min="2" max="2" width="9.88671875" customWidth="1"/>
-    <col min="3" max="3" width="5.88671875" customWidth="1"/>
-    <col min="4" max="4" width="9.21875" customWidth="1"/>
-    <col min="5" max="6" width="6.6640625" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="7.5703125" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" customWidth="1"/>
+    <col min="3" max="3" width="5.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" customWidth="1"/>
+    <col min="5" max="6" width="6.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
     <col min="9" max="9" width="9" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" customWidth="1"/>
-    <col min="12" max="12" width="15.21875" customWidth="1"/>
-    <col min="13" max="13" width="11.109375" customWidth="1"/>
-    <col min="14" max="14" width="8.109375" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" customWidth="1"/>
-    <col min="16" max="16" width="12.6640625" customWidth="1"/>
-    <col min="17" max="17" width="12.109375" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" customWidth="1"/>
+    <col min="14" max="14" width="8.140625" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" customWidth="1"/>
+    <col min="17" max="20" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-    </row>
-    <row r="2" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="6">
-        <v>0.18</v>
-      </c>
-      <c r="C2" s="6">
-        <v>0.18</v>
-      </c>
-      <c r="D2" s="6">
-        <v>0.32</v>
-      </c>
-      <c r="E2" s="6">
-        <v>0.32</v>
-      </c>
-      <c r="F2" s="6">
+      <c r="M1" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="T1" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.32</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.32</v>
+      </c>
+      <c r="F2" s="4">
         <f>SUM(B2:E2)</f>
         <v>1</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="4">
         <v>0.15</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="4">
         <v>0.21</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="4">
         <v>0.4</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="4">
         <v>0.89</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="6"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="6"/>
-    </row>
-    <row r="3" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6">
-        <v>0.18</v>
-      </c>
-      <c r="C3" s="6">
-        <v>0.18</v>
-      </c>
-      <c r="D3" s="6">
-        <v>0.32</v>
-      </c>
-      <c r="E3" s="6">
-        <v>0.32</v>
-      </c>
-      <c r="F3" s="6">
+      <c r="M2" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="N2" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="O2" s="6">
+        <v>0</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="R2" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="S2" s="4">
+        <v>0.79</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.32</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.32</v>
+      </c>
+      <c r="F3" s="4">
         <f t="shared" ref="F3:F17" si="0">SUM(B3:E3)</f>
         <v>1</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="4">
         <v>0.15</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="4">
         <v>0.21</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="4">
         <v>0.4</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="4">
         <v>0.89</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="6"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="6"/>
-    </row>
-    <row r="4" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="M3" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="N3" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="O3" s="6">
+        <v>0</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="R3" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="S3" s="4">
+        <v>0.79</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6">
-        <v>0.18</v>
-      </c>
-      <c r="C4" s="6">
-        <v>0.18</v>
-      </c>
-      <c r="D4" s="6">
-        <v>0.32</v>
-      </c>
-      <c r="E4" s="6">
-        <v>0.32</v>
-      </c>
-      <c r="F4" s="6">
+      <c r="B4" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.32</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.32</v>
+      </c>
+      <c r="F4" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="6">
-        <v>0</v>
-      </c>
-      <c r="I4" s="6">
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
         <v>0.16</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="4">
         <v>0.46</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="4">
         <v>0.99</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="6"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="6"/>
-    </row>
-    <row r="5" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="M4" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="N4" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="O4" s="6">
+        <v>0</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="R4" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="S4" s="4">
+        <v>0.79</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6">
-        <v>0.18</v>
-      </c>
-      <c r="C5" s="6">
-        <v>0.18</v>
-      </c>
-      <c r="D5" s="6">
-        <v>0.32</v>
-      </c>
-      <c r="E5" s="6">
-        <v>0.32</v>
-      </c>
-      <c r="F5" s="6">
+      <c r="B5" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.32</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.32</v>
+      </c>
+      <c r="F5" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="4">
         <v>0.15</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="4">
         <v>0.21</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="4">
         <v>0.4</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="4">
         <v>0.89</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="L5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="6"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="6"/>
-    </row>
-    <row r="6" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="M5" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="O5" s="6">
+        <v>0</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="R5" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="S5" s="4">
+        <v>0.79</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="6">
-        <v>0.18</v>
-      </c>
-      <c r="C6" s="6">
-        <v>0.18</v>
-      </c>
-      <c r="D6" s="6">
-        <v>0.32</v>
-      </c>
-      <c r="E6" s="6">
-        <v>0.32</v>
-      </c>
-      <c r="F6" s="6">
+      <c r="B6" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.32</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.32</v>
+      </c>
+      <c r="F6" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="4">
         <v>0.15</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="4">
         <v>0.21</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="4">
         <v>0.4</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="4">
         <v>0.89</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="L6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="6"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="6"/>
-    </row>
-    <row r="7" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="M6" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="N6" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="O6" s="6">
+        <v>0</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="R6" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="S6" s="4">
+        <v>0.79</v>
+      </c>
+      <c r="T6" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="6">
-        <v>0.18</v>
-      </c>
-      <c r="C7" s="6">
-        <v>0.18</v>
-      </c>
-      <c r="D7" s="6">
-        <v>0.32</v>
-      </c>
-      <c r="E7" s="6">
-        <v>0.32</v>
-      </c>
-      <c r="F7" s="6">
+      <c r="B7" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.32</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.32</v>
+      </c>
+      <c r="F7" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="4">
         <v>0.15</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="4">
         <v>0.21</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="4">
         <v>0.4</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="4">
         <v>0.89</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="L7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M7" s="6"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="6"/>
-    </row>
-    <row r="8" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="M7" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="N7" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="O7" s="6">
+        <v>0</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="R7" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="S7" s="4">
+        <v>0.79</v>
+      </c>
+      <c r="T7" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="6">
-        <v>0.18</v>
-      </c>
-      <c r="C8" s="6">
-        <v>0.18</v>
-      </c>
-      <c r="D8" s="6">
-        <v>0.32</v>
-      </c>
-      <c r="E8" s="6">
-        <v>0.32</v>
-      </c>
-      <c r="F8" s="6">
+      <c r="B8" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.32</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.32</v>
+      </c>
+      <c r="F8" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="4">
         <v>0.15</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="4">
         <v>0.21</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="4">
         <v>0.4</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="4">
         <v>0.89</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="L8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M8" s="6"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="6"/>
-    </row>
-    <row r="9" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="M8" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="N8" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="O8" s="6">
+        <v>0</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="R8" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="S8" s="4">
+        <v>0.79</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="6">
-        <v>0.18</v>
-      </c>
-      <c r="C9" s="6">
-        <v>0.18</v>
-      </c>
-      <c r="D9" s="6">
-        <v>0.32</v>
-      </c>
-      <c r="E9" s="6">
-        <v>0.32</v>
-      </c>
-      <c r="F9" s="6">
+      <c r="B9" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.32</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.32</v>
+      </c>
+      <c r="F9" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="4">
         <v>0.15</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="4">
         <v>0.21</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="4">
         <v>0.4</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="4">
         <v>0.89</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="L9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M9" s="6"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="6"/>
-    </row>
-    <row r="10" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="M9" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="N9" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="O9" s="6">
+        <v>0</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="R9" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="S9" s="4">
+        <v>0.79</v>
+      </c>
+      <c r="T9" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="6">
-        <v>0.18</v>
-      </c>
-      <c r="C10" s="6">
-        <v>0.18</v>
-      </c>
-      <c r="D10" s="6">
-        <v>0.32</v>
-      </c>
-      <c r="E10" s="6">
-        <v>0.32</v>
-      </c>
-      <c r="F10" s="6">
+      <c r="B10" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.32</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.32</v>
+      </c>
+      <c r="F10" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="4">
         <v>0.15</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="4">
         <v>0.21</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="4">
         <v>0.4</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="4">
         <v>0.89</v>
       </c>
-      <c r="L10" s="6" t="s">
+      <c r="L10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M10" s="6"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="6"/>
-    </row>
-    <row r="11" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+      <c r="M10" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="N10" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="O10" s="6">
+        <v>0</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="R10" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="S10" s="4">
+        <v>0.79</v>
+      </c>
+      <c r="T10" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="6">
-        <v>0.18</v>
-      </c>
-      <c r="C11" s="6">
-        <v>0.18</v>
-      </c>
-      <c r="D11" s="6">
-        <v>0.32</v>
-      </c>
-      <c r="E11" s="6">
-        <v>0.32</v>
-      </c>
-      <c r="F11" s="6">
+      <c r="B11" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.32</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.32</v>
+      </c>
+      <c r="F11" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="4">
         <v>0.15</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="4">
         <v>0.21</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="4">
         <v>0.4</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="4">
         <v>0.89</v>
       </c>
-      <c r="L11" s="6" t="s">
+      <c r="L11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M11" s="6"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="6"/>
-    </row>
-    <row r="12" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="M11" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="N11" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="O11" s="6">
+        <v>0</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="R11" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="S11" s="4">
+        <v>0.79</v>
+      </c>
+      <c r="T11" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="6">
-        <v>0.18</v>
-      </c>
-      <c r="C12" s="6">
-        <v>0.18</v>
-      </c>
-      <c r="D12" s="6">
-        <v>0.32</v>
-      </c>
-      <c r="E12" s="6">
-        <v>0.32</v>
-      </c>
-      <c r="F12" s="6">
+      <c r="B12" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.32</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.32</v>
+      </c>
+      <c r="F12" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="4">
         <v>0.15</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="4">
         <v>0.21</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="4">
         <v>0.4</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="4">
         <v>0.89</v>
       </c>
-      <c r="L12" s="6" t="s">
+      <c r="L12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M12" s="6"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="6"/>
-    </row>
-    <row r="13" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="M12" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="N12" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="O12" s="6">
+        <v>0</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="R12" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="S12" s="4">
+        <v>0.79</v>
+      </c>
+      <c r="T12" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="6">
-        <v>0.18</v>
-      </c>
-      <c r="C13" s="6">
-        <v>0.18</v>
-      </c>
-      <c r="D13" s="6">
-        <v>0.32</v>
-      </c>
-      <c r="E13" s="6">
-        <v>0.32</v>
-      </c>
-      <c r="F13" s="6">
+      <c r="B13" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.32</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.32</v>
+      </c>
+      <c r="F13" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="4">
         <v>0.15</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="4">
         <v>0.21</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="4">
         <v>0.4</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="4">
         <v>0.89</v>
       </c>
-      <c r="L13" s="6" t="s">
+      <c r="L13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M13" s="6"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="6"/>
-    </row>
-    <row r="14" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="M13" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="N13" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="O13" s="6">
+        <v>0</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="R13" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="S13" s="4">
+        <v>0.79</v>
+      </c>
+      <c r="T13" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="6">
-        <v>0.18</v>
-      </c>
-      <c r="C14" s="6">
-        <v>0.18</v>
-      </c>
-      <c r="D14" s="6">
-        <v>0.32</v>
-      </c>
-      <c r="E14" s="6">
-        <v>0.32</v>
-      </c>
-      <c r="F14" s="6">
+      <c r="B14" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.32</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.32</v>
+      </c>
+      <c r="F14" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="4">
         <v>0.15</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="4">
         <v>0.21</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="4">
         <v>0.4</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="4">
         <v>0.89</v>
       </c>
-      <c r="L14" s="6" t="s">
+      <c r="L14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M14" s="6"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="6"/>
-    </row>
-    <row r="15" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+      <c r="M14" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="N14" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="O14" s="6">
+        <v>0</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="R14" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="S14" s="4">
+        <v>0.79</v>
+      </c>
+      <c r="T14" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="6">
-        <v>0.18</v>
-      </c>
-      <c r="C15" s="6">
-        <v>0.18</v>
-      </c>
-      <c r="D15" s="6">
-        <v>0.32</v>
-      </c>
-      <c r="E15" s="6">
-        <v>0.32</v>
-      </c>
-      <c r="F15" s="6">
+      <c r="B15" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.32</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.32</v>
+      </c>
+      <c r="F15" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="4">
         <v>0.15</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="4">
         <v>0.21</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="4">
         <v>0.4</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15" s="4">
         <v>0.89</v>
       </c>
-      <c r="L15" s="6" t="s">
+      <c r="L15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M15" s="6"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="6"/>
-    </row>
-    <row r="16" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+      <c r="M15" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="N15" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="O15" s="6">
+        <v>0</v>
+      </c>
+      <c r="P15" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="R15" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="S15" s="4">
+        <v>0.79</v>
+      </c>
+      <c r="T15" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="6">
-        <v>0.18</v>
-      </c>
-      <c r="C16" s="6">
-        <v>0.18</v>
-      </c>
-      <c r="D16" s="6">
-        <v>0.32</v>
-      </c>
-      <c r="E16" s="6">
-        <v>0.32</v>
-      </c>
-      <c r="F16" s="6">
+      <c r="B16" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.32</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.32</v>
+      </c>
+      <c r="F16" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="6">
-        <v>0</v>
-      </c>
-      <c r="I16" s="6">
+      <c r="H16" s="4">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4">
         <v>0.2</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16" s="4">
         <v>0.6</v>
       </c>
-      <c r="K16" s="6">
-        <v>1</v>
-      </c>
-      <c r="L16" s="6" t="s">
+      <c r="K16" s="4">
+        <v>1</v>
+      </c>
+      <c r="L16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M16" s="6"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="6"/>
-    </row>
-    <row r="17" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+      <c r="M16" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="N16" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="O16" s="6">
+        <v>0</v>
+      </c>
+      <c r="P16" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="R16" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="S16" s="4">
+        <v>0.79</v>
+      </c>
+      <c r="T16" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="6">
-        <v>0.18</v>
-      </c>
-      <c r="C17" s="6">
-        <v>0.18</v>
-      </c>
-      <c r="D17" s="6">
-        <v>0.32</v>
-      </c>
-      <c r="E17" s="6">
-        <v>0.32</v>
-      </c>
-      <c r="F17" s="6">
+      <c r="B17" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.32</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.32</v>
+      </c>
+      <c r="F17" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="4">
         <v>0.15</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="4">
         <v>0.21</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17" s="4">
         <v>0.4</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K17" s="4">
         <v>0.89</v>
       </c>
-      <c r="L17" s="6" t="s">
+      <c r="L17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M17" s="6"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="6"/>
-    </row>
-    <row r="18" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-    </row>
-    <row r="19" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-    </row>
-    <row r="20" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-    </row>
-    <row r="21" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="10"/>
-    </row>
-    <row r="22" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="10"/>
-    </row>
-    <row r="23" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-    </row>
-    <row r="24" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-    </row>
-    <row r="25" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+      <c r="M17" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="N17" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="O17" s="6">
+        <v>0</v>
+      </c>
+      <c r="P17" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="R17" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="S17" s="4">
+        <v>0.79</v>
+      </c>
+      <c r="T17" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J18" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="K18" s="4">
+        <v>1</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+    </row>
+    <row r="21" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="8"/>
+    </row>
+    <row r="22" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="8"/>
+    </row>
+    <row r="23" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+    </row>
+    <row r="24" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+    </row>
+    <row r="25" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R17">
     <sortCondition ref="A2:A17"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="L4" r:id="rId1" xr:uid="{9BE21DC8-4DA0-4117-BD1C-3B94B7169110}"/>
+    <hyperlink ref="L2" r:id="rId2" xr:uid="{D310AAC2-6BC0-439B-A47C-9293FD24DE61}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1406,7 +1774,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1418,7 +1786,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
